--- a/static/templates/Finance_KPI_Dashboard.xlsx
+++ b/static/templates/Finance_KPI_Dashboard.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Artificial Intelligence and Machine Learning KPI Dashboard - User Guide &amp; Instructions</t>
+          <t>Finance - Core Banking System Modernization KPI Dashboard - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -587,6 +587,7 @@
         </is>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
@@ -654,6 +655,7 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
@@ -780,6 +782,7 @@
         </is>
       </c>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
@@ -829,6 +832,7 @@
         </is>
       </c>
     </row>
+    <row r="33"/>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
@@ -917,6 +921,7 @@
         </is>
       </c>
     </row>
+    <row r="40"/>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
@@ -1009,6 +1014,7 @@
         </is>
       </c>
     </row>
+    <row r="47"/>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
@@ -1065,6 +1071,8 @@
         </is>
       </c>
     </row>
+    <row r="56"/>
+    <row r="57"/>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
@@ -1168,14 +1176,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING - KPI DASHBOARD</t>
+          <t>FINANCE - CORE BANKING SYSTEM MODERNIZATION - KPI DASHBOARD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Project: AI/ML Implementation</t>
+          <t>Project: Core Banking System Modernization</t>
         </is>
       </c>
     </row>
@@ -1193,6 +1201,7 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -1265,7 +1274,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Model Accuracy Rate</t>
+          <t>Transaction Processing Accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1274,15 +1283,14 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>85</v>
+        <v>99.95</v>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-11.8%</t>
-        </is>
+        <v>99.87</v>
+      </c>
+      <c r="F8">
+        <f>((E8-D8)/D8)*100</f>
+        <v/>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -1306,7 +1314,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1326,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Data Quality Score</t>
+          <t>System Uptime %</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1327,19 +1335,18 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>87</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>79</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-9.2%</t>
-        </is>
+        <v>99.92</v>
+      </c>
+      <c r="F9">
+        <f>((E9-D9)/D9)*100</f>
+        <v/>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>On Track</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1359,7 +1366,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1378,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>User Adoption Rate</t>
+          <t>Data Migration Completion</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1380,15 +1387,14 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E10" t="n">
-        <v>83</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-6.7%</t>
-        </is>
+        <v>88</v>
+      </c>
+      <c r="F10">
+        <f>((E10-D10)/D10)*100</f>
+        <v/>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -1412,7 +1418,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1430,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Processing Time Reduction</t>
+          <t>User Adoption Rate</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1433,19 +1439,18 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E11" t="n">
-        <v>87</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-4.4%</t>
-        </is>
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <f>((E11-D11)/D11)*100</f>
+        <v/>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>On Track</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1465,7 +1470,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1477,24 +1482,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cost Savings Achieved</t>
+          <t>Regulatory Compliance Score</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>91</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
+        <v>98</v>
+      </c>
+      <c r="F12">
+        <f>((E12-D12)/D12)*100</f>
+        <v/>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
@@ -1518,7 +1522,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1534,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Compliance Audit Score</t>
+          <t>Security Incident Count</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1539,19 +1543,18 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>95</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f>((E13-D13)/D13)*100</f>
+        <v/>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>On Track</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1571,7 +1574,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1586,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Training Completion Rate</t>
+          <t>Defect Density</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1592,19 +1595,18 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>97</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>99</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
+        <v>0.8</v>
+      </c>
+      <c r="F14">
+        <f>((E14-D14)/D14)*100</f>
+        <v/>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>On Track</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1624,7 +1626,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1638,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>System Uptime</t>
+          <t>Training Completion Rate</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1645,15 +1647,14 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E15" t="n">
-        <v>103</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <f>((E15-D15)/D15)*100</f>
+        <v/>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
@@ -1677,7 +1678,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1689,24 +1690,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Error Rate Reduction</t>
+          <t>Budget Variance %</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>107</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <f>((E16-D16)/D16)*100</f>
+        <v/>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1742,24 +1742,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROI Achievement</t>
+          <t>Schedule Variance %</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>111</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.8%</t>
-        </is>
+        <v>2.8</v>
+      </c>
+      <c r="F17">
+        <f>((E17-D17)/D17)*100</f>
+        <v/>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -1783,7 +1782,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1794,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Stakeholder Satisfaction</t>
+          <t>Cost Savings Achieved</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1804,15 +1803,14 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>105</v>
+        <v>2500000</v>
       </c>
       <c r="E18" t="n">
-        <v>115</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
+        <v>2100000</v>
+      </c>
+      <c r="F18">
+        <f>((E18-D18)/D18)*100</f>
+        <v/>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -1836,7 +1834,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1846,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Time to Deployment</t>
+          <t>ROI Achievement %</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1857,15 +1855,14 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E19" t="n">
-        <v>119</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
+        <v>118</v>
+      </c>
+      <c r="F19">
+        <f>((E19-D19)/D19)*100</f>
+        <v/>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1889,7 +1886,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1898,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Data Governance Maturity</t>
+          <t>Customer Satisfaction Score</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1910,19 +1907,18 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>109</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="n">
-        <v>123</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>12.8%</t>
-        </is>
+        <v>4.2</v>
+      </c>
+      <c r="F20">
+        <f>((E20-D20)/D20)*100</f>
+        <v/>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>On Track</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1942,7 +1938,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1950,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Security Incident Count</t>
+          <t>Integration Success Rate</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1963,19 +1959,18 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E21" t="n">
-        <v>127</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>14.4%</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <f>((E21-D21)/D21)*100</f>
+        <v/>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>On Track</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1995,7 +1990,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>
@@ -2016,19 +2011,18 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>131</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>15.9%</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="F22">
+        <f>((E22-D22)/D22)*100</f>
+        <v/>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Off Track</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2048,7 +2042,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
+          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
         </is>
       </c>
     </row>

--- a/static/templates/Finance_KPI_Dashboard.xlsx
+++ b/static/templates/Finance_KPI_Dashboard.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Finance - Core Banking System Modernization KPI Dashboard - User Guide &amp; Instructions</t>
+          <t>Artificial Intelligence and Machine Learning KPI Dashboard - User Guide &amp; Instructions</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,6 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
@@ -655,7 +654,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
@@ -782,7 +780,6 @@
         </is>
       </c>
     </row>
-    <row r="25"/>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
@@ -832,7 +829,6 @@
         </is>
       </c>
     </row>
-    <row r="33"/>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
@@ -921,7 +917,6 @@
         </is>
       </c>
     </row>
-    <row r="40"/>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
@@ -1014,7 +1009,6 @@
         </is>
       </c>
     </row>
-    <row r="47"/>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
@@ -1071,8 +1065,6 @@
         </is>
       </c>
     </row>
-    <row r="56"/>
-    <row r="57"/>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
@@ -1176,14 +1168,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FINANCE - CORE BANKING SYSTEM MODERNIZATION - KPI DASHBOARD</t>
+          <t>ARTIFICIAL INTELLIGENCE AND MACHINE LEARNING - KPI DASHBOARD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Project: Core Banking System Modernization</t>
+          <t>Project: AI/ML Implementation</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1193,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -1274,7 +1265,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transaction Processing Accuracy</t>
+          <t>Model Accuracy Rate</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1283,14 +1274,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>99.95</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
-        <v>99.87</v>
-      </c>
-      <c r="F8">
-        <f>((E8-D8)/D8)*100</f>
-        <v/>
+        <v>75</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-11.8%</t>
+        </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -1314,7 +1306,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1318,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>System Uptime %</t>
+          <t>Data Quality Score</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1335,18 +1327,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>99.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="E9" t="n">
-        <v>99.92</v>
-      </c>
-      <c r="F9">
-        <f>((E9-D9)/D9)*100</f>
-        <v/>
+        <v>79</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-9.2%</t>
+        </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>On Track</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1366,7 +1359,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1371,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Data Migration Completion</t>
+          <t>User Adoption Rate</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1387,14 +1380,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
-      </c>
-      <c r="F10">
-        <f>((E10-D10)/D10)*100</f>
-        <v/>
+        <v>83</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-6.7%</t>
+        </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -1418,7 +1412,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1424,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>User Adoption Rate</t>
+          <t>Processing Time Reduction</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1439,18 +1433,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E11" t="n">
-        <v>78</v>
-      </c>
-      <c r="F11">
-        <f>((E11-D11)/D11)*100</f>
-        <v/>
+        <v>87</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-4.4%</t>
+        </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>On Track</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1470,7 +1465,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1482,23 +1477,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Regulatory Compliance Score</t>
+          <t>Cost Savings Achieved</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
-      </c>
-      <c r="F12">
-        <f>((E12-D12)/D12)*100</f>
-        <v/>
+        <v>91</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
@@ -1522,7 +1518,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1530,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Security Incident Count</t>
+          <t>Compliance Audit Score</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1543,18 +1539,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <f>((E13-D13)/D13)*100</f>
-        <v/>
+        <v>95</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>On Track</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1574,7 +1571,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1583,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Defect Density</t>
+          <t>Training Completion Rate</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1595,18 +1592,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>97</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F14">
-        <f>((E14-D14)/D14)*100</f>
-        <v/>
+        <v>99</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>On Track</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1626,7 +1624,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1636,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Training Completion Rate</t>
+          <t>System Uptime</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1647,14 +1645,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E15" t="n">
-        <v>92</v>
-      </c>
-      <c r="F15">
-        <f>((E15-D15)/D15)*100</f>
-        <v/>
+        <v>103</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
@@ -1678,7 +1677,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1690,23 +1689,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Budget Variance %</t>
+          <t>Error Rate Reduction</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F16">
-        <f>((E16-D16)/D16)*100</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.9%</t>
+        </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1742,23 +1742,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Schedule Variance %</t>
+          <t>ROI Achievement</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F17">
-        <f>((E17-D17)/D17)*100</f>
-        <v/>
+        <v>111</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -1782,7 +1783,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1795,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cost Savings Achieved</t>
+          <t>Stakeholder Satisfaction</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1803,14 +1804,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2500000</v>
+        <v>105</v>
       </c>
       <c r="E18" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="F18">
-        <f>((E18-D18)/D18)*100</f>
-        <v/>
+        <v>115</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -1834,7 +1836,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1848,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ROI Achievement %</t>
+          <t>Time to Deployment</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1855,14 +1857,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E19" t="n">
-        <v>118</v>
-      </c>
-      <c r="F19">
-        <f>((E19-D19)/D19)*100</f>
-        <v/>
+        <v>119</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1886,7 +1889,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1901,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Customer Satisfaction Score</t>
+          <t>Data Governance Maturity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1907,18 +1910,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.5</v>
+        <v>109</v>
       </c>
       <c r="E20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F20">
-        <f>((E20-D20)/D20)*100</f>
-        <v/>
+        <v>123</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>On Track</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1938,7 +1942,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1954,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Integration Success Rate</t>
+          <t>Security Incident Count</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1959,18 +1963,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E21" t="n">
-        <v>95</v>
-      </c>
-      <c r="F21">
-        <f>((E21-D21)/D21)*100</f>
-        <v/>
+        <v>127</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>14.4%</t>
+        </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>On Track</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1990,7 +1995,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
@@ -2011,18 +2016,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E22" t="n">
-        <v>92</v>
-      </c>
-      <c r="F22">
-        <f>((E22-D22)/D22)*100</f>
-        <v/>
+        <v>131</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>15.9%</t>
+        </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Off Track</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2042,7 +2048,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Critical KPI for Finance - Core Banking System Modernization success</t>
+          <t>Critical KPI for Artificial Intelligence and Machine Learning success</t>
         </is>
       </c>
     </row>
